--- a/tests/results_tests/Estadisticos anuales CDD.xlsx
+++ b/tests/results_tests/Estadisticos anuales CDD.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1325.735717773438</v>
+        <v>1338.119262695312</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.9190063476562</v>
+        <v>216.8672180175781</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1208.52001953125</v>
+        <v>1241.714141845703</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1293.205078125</v>
+        <v>1293.843994140625</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1424.407897949219</v>
+        <v>1425.784820556641</v>
       </c>
     </row>
     <row r="9">
